--- a/Modding resources/Internal Factions Completed.xlsx
+++ b/Modding resources/Internal Factions Completed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HoChiMinh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HoChiMinh/Documents/Paradox Interactive/Hearts of Iron IV/mod/Modern_Day_4_HOI/Modding resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2004,11 +2005,6 @@
     <t>PKK</t>
   </si>
   <si>
-    <t>MIL
-FRM
-SSBM</t>
-  </si>
-  <si>
     <t>Polynesian Federation</t>
   </si>
   <si>
@@ -2095,11 +2091,6 @@
   </si>
   <si>
     <t>ROJ</t>
-  </si>
-  <si>
-    <t>FRM
-MIL
-FJI</t>
   </si>
   <si>
     <t>Romania</t>
@@ -2864,12 +2855,23 @@
 countries
 </t>
   </si>
+  <si>
+    <t>MIL
+FRM
+LAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRM
+MIL
+NTL
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2915,6 +2917,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3279,7 +3287,7 @@
   <dimension ref="A1:F1046"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3295,10 +3303,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3323,10 +3331,10 @@
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -5679,8 +5687,8 @@
       <c r="B176" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>525</v>
+      <c r="C176" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>65</v>
@@ -5688,13 +5696,13 @@
     </row>
     <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>65</v>
@@ -5702,37 +5710,37 @@
     </row>
     <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>530</v>
+      </c>
+      <c r="B179" t="s">
         <v>531</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>534</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>113</v>
@@ -5740,23 +5748,23 @@
     </row>
     <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
     <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>539</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>542</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>49</v>
@@ -5764,13 +5772,13 @@
     </row>
     <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>542</v>
+      </c>
+      <c r="B183" t="s">
         <v>543</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>479</v>
@@ -5778,20 +5786,20 @@
     </row>
     <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>343</v>
@@ -5802,13 +5810,13 @@
     </row>
     <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>551</v>
+      <c r="C186" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>205</v>
@@ -5816,13 +5824,13 @@
     </row>
     <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>550</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>113</v>
@@ -5830,24 +5838,24 @@
     </row>
     <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>553</v>
+      </c>
+      <c r="B188" t="s">
+        <v>554</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B188" t="s">
+      <c r="D188" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>56</v>
@@ -5858,10 +5866,10 @@
     </row>
     <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>86</v>
@@ -5872,10 +5880,10 @@
     </row>
     <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B191" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>94</v>
@@ -5886,47 +5894,47 @@
     </row>
     <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
     <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
     </row>
     <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>571</v>
+      </c>
+      <c r="B195" t="s">
+        <v>572</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="B195" t="s">
-        <v>574</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>407</v>
@@ -5934,10 +5942,10 @@
     </row>
     <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>452</v>
@@ -5948,13 +5956,13 @@
     </row>
     <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>576</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>238</v>
@@ -5962,86 +5970,86 @@
     </row>
     <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>352</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
     </row>
     <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>592</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="D202" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
     </row>
     <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>508</v>
@@ -6052,10 +6060,10 @@
     </row>
     <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>201</v>
@@ -6066,10 +6074,10 @@
     </row>
     <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>56</v>
@@ -6080,13 +6088,13 @@
     </row>
     <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>608</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>407</v>
@@ -6094,13 +6102,13 @@
     </row>
     <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>401</v>
@@ -6108,37 +6116,37 @@
     </row>
     <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>610</v>
+      </c>
+      <c r="B209" t="s">
+        <v>611</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="B209" t="s">
-        <v>613</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
     </row>
     <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>619</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>65</v>
@@ -6146,23 +6154,23 @@
     </row>
     <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>619</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>273</v>
@@ -6170,13 +6178,13 @@
     </row>
     <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>65</v>
@@ -6184,13 +6192,13 @@
     </row>
     <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>625</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>53</v>
@@ -6198,13 +6206,13 @@
     </row>
     <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>628</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>445</v>
@@ -6212,23 +6220,23 @@
     </row>
     <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>113</v>
@@ -6236,13 +6244,13 @@
     </row>
     <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>640</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>95</v>
@@ -6250,38 +6258,38 @@
     </row>
     <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="D220" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>643</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>646</v>
+      </c>
+      <c r="B222" t="s">
+        <v>647</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="B222" t="s">
-        <v>649</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>99</v>
@@ -6289,10 +6297,10 @@
     </row>
     <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>457</v>
@@ -6303,10 +6311,10 @@
     </row>
     <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B224" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>262</v>
@@ -6317,27 +6325,27 @@
     </row>
     <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>653</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="D225" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>657</v>
+      </c>
+      <c r="B226" t="s">
+        <v>658</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="B226" t="s">
-        <v>660</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>661</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>65</v>
@@ -6345,34 +6353,34 @@
     </row>
     <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="D227" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
     </row>
     <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>665</v>
+      </c>
+      <c r="B229" t="s">
+        <v>666</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="B229" t="s">
-        <v>668</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>669</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>53</v>
@@ -6380,13 +6388,13 @@
     </row>
     <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>672</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>65</v>
@@ -6394,33 +6402,33 @@
     </row>
     <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
     </row>
     <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
     </row>
     <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>679</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>49</v>
@@ -6428,13 +6436,13 @@
     </row>
     <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>678</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>682</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>139</v>
@@ -6442,10 +6450,10 @@
     </row>
     <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>141</v>
@@ -6456,13 +6464,13 @@
     </row>
     <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B236" t="s">
+        <v>684</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="B236" t="s">
-        <v>686</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>49</v>
@@ -6470,27 +6478,27 @@
     </row>
     <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>688</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>692</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>113</v>
@@ -6498,13 +6506,13 @@
     </row>
     <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>65</v>
@@ -6512,27 +6520,27 @@
     </row>
     <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>697</v>
+      </c>
+      <c r="B241" t="s">
+        <v>698</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="B241" t="s">
-        <v>700</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>113</v>
@@ -6540,13 +6548,13 @@
     </row>
     <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B242" t="s">
+        <v>701</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="B242" t="s">
-        <v>703</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>704</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>273</v>
@@ -6554,24 +6562,24 @@
     </row>
     <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>703</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="D243" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B244" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>303</v>
@@ -6582,13 +6590,13 @@
     </row>
     <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B245" t="s">
+        <v>710</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="B245" t="s">
-        <v>712</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>139</v>
@@ -6596,41 +6604,41 @@
     </row>
     <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>714</v>
+      </c>
+      <c r="B247" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B247" t="s">
+      <c r="D247" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>718</v>
+      </c>
+      <c r="B248" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="B248" t="s">
-        <v>721</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>227</v>
@@ -6638,27 +6646,27 @@
     </row>
     <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B249" t="s">
+        <v>722</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B249" t="s">
+      <c r="D249" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>99</v>
@@ -6666,13 +6674,13 @@
     </row>
     <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>728</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>57</v>
@@ -6680,65 +6688,65 @@
     </row>
     <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>735</v>
       </c>
       <c r="D252" s="3"/>
     </row>
     <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
     </row>
     <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
     </row>
     <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
     </row>
     <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
     </row>
     <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>380</v>
@@ -6746,28 +6754,28 @@
     </row>
     <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>473</v>
@@ -6778,10 +6786,10 @@
     </row>
     <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>98</v>

--- a/Modding resources/Internal Factions Completed.xlsx
+++ b/Modding resources/Internal Factions Completed.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruv\Documents\Paradox Interactive\Hearts of Iron IV\mod\Modern_Day_4_HOI\Modding resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7023F0-861B-4238-BDF6-6838B8F3944A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Definition and Source" sheetId="2" r:id="rId4"/>
+    <sheet name="Formated Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Definition and Source" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="808">
   <si>
     <t>Code</t>
   </si>
@@ -44,15 +54,24 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>TAG</t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> (MD4)</t>
     </r>
@@ -430,10 +449,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>OLI</t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">
 SSBM
 FFI</t>
@@ -1064,19 +1090,22 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> FYROM</t>
     </r>
     <r>
       <rPr>
-        <sz val="16.0"/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>(Macedonia)</t>
     </r>
@@ -2497,15 +2526,9 @@
     <t>SWA</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>INB</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
+    <t>INB
 FRM
 SSMB</t>
-    </r>
   </si>
   <si>
     <t>Sweden</t>
@@ -2645,18 +2668,9 @@
     <t>TRK</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">FFI
-</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>IQF</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
+    <t>FFI
+IQF
 OLI</t>
-    </r>
   </si>
   <si>
     <t>Pakistani Taliban</t>
@@ -2709,15 +2723,9 @@
     <t>UAE</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">EXF
+    <t>EXF
 FFI
-</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>WUL</t>
-    </r>
+WUL</t>
   </si>
   <si>
     <t>Indiffrent
@@ -2770,15 +2778,9 @@
     <t>UZB</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>OLI</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
+    <t>OLI
 FFI
 LNO</t>
-    </r>
   </si>
   <si>
     <t>indiffrent
@@ -2893,32 +2895,237 @@
   </si>
   <si>
     <t>ZIM</t>
+  </si>
+  <si>
+    <t>TAG  (MD4)</t>
+  </si>
+  <si>
+    <t>Internal Faction 1</t>
+  </si>
+  <si>
+    <t>Internal Faction 2</t>
+  </si>
+  <si>
+    <t>Internal Faction 3</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>SSBM</t>
+  </si>
+  <si>
+    <t>OLI</t>
+  </si>
+  <si>
+    <t>INB</t>
+  </si>
+  <si>
+    <t>ULE</t>
+  </si>
+  <si>
+    <t>FFI</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>LNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFI </t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>WUL</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>EXF</t>
+  </si>
+  <si>
+    <t>SSMB</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>DID</t>
+  </si>
+  <si>
+    <t>IQF</t>
+  </si>
+  <si>
+    <t>ITL</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>DON</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+FRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+FFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+WUL</t>
+  </si>
+  <si>
+    <t>WAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LNO</t>
+  </si>
+  <si>
+    <t>Indifferent</t>
+  </si>
+  <si>
+    <t>positive_
+negative_
+indifferent</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Hostile</t>
+  </si>
+  <si>
+    <t>Opinion Level</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Enthusiastic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2926,79 +3133,4616 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hostile" xfId="5" xr:uid="{29A99FF2-8741-486D-AAF1-33F0877CC566}"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061963EA-51AF-4269-AB1D-04C184E083DD}">
+  <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.0"/>
-    <col customWidth="1" min="2" max="2" width="28.0"/>
-    <col customWidth="1" min="3" max="3" width="23.14"/>
-    <col customWidth="1" min="4" max="4" width="23.0"/>
-    <col customWidth="1" min="5" max="5" width="23.43"/>
-    <col customWidth="1" min="6" max="6" width="25.86"/>
-    <col customWidth="1" min="7" max="23" width="8.71"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" t="s">
+        <v>247</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>255</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21">
+      <c r="A80" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>279</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>294</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>309</v>
+      </c>
+      <c r="B93" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>322</v>
+      </c>
+      <c r="B98" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>327</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>334</v>
+      </c>
+      <c r="B103" t="s">
+        <v>335</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>336</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>339</v>
+      </c>
+      <c r="B105" t="s">
+        <v>340</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>346</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>349</v>
+      </c>
+      <c r="B109" t="s">
+        <v>350</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>355</v>
+      </c>
+      <c r="B111" t="s">
+        <v>356</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>359</v>
+      </c>
+      <c r="B112" t="s">
+        <v>360</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>363</v>
+      </c>
+      <c r="B113" t="s">
+        <v>364</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>365</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>368</v>
+      </c>
+      <c r="B115" t="s">
+        <v>369</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B116" t="s">
+        <v>371</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>373</v>
+      </c>
+      <c r="B117" t="s">
+        <v>374</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B118" t="s">
+        <v>377</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>379</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>386</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B123" t="s">
+        <v>391</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>395</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>401</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>404</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>407</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>412</v>
+      </c>
+      <c r="B131" t="s">
+        <v>413</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>414</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>420</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>425</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>428</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>432</v>
+      </c>
+      <c r="B139" t="s">
+        <v>433</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>437</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>440</v>
+      </c>
+      <c r="B142" t="s">
+        <v>441</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>443</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B144" t="s">
+        <v>446</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>449</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>452</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>455</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>457</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>461</v>
+      </c>
+      <c r="B149" t="s">
+        <v>462</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>463</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>468</v>
+      </c>
+      <c r="B152" t="s">
+        <v>469</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>478</v>
+      </c>
+      <c r="B156" t="s">
+        <v>479</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>480</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>487</v>
+      </c>
+      <c r="B159" t="s">
+        <v>488</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>496</v>
+      </c>
+      <c r="B162" t="s">
+        <v>497</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B163" t="s">
+        <v>499</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>500</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>504</v>
+      </c>
+      <c r="B165" t="s">
+        <v>505</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>510</v>
+      </c>
+      <c r="B167" t="s">
+        <v>511</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>513</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>516</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>525</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75">
+      <c r="A175" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>537</v>
+      </c>
+      <c r="B177" t="s">
+        <v>538</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>541</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>546</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>549</v>
+      </c>
+      <c r="B181" t="s">
+        <v>550</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C182" s="4"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>558</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>561</v>
+      </c>
+      <c r="B186" t="s">
+        <v>562</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>565</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B189" t="s">
+        <v>570</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E189" s="19" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C190" s="4"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D192" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>579</v>
+      </c>
+      <c r="B193" t="s">
+        <v>580</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>582</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>584</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="D197" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>601</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C201" s="4"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>607</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E202" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>611</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>619</v>
+      </c>
+      <c r="B207" t="s">
+        <v>620</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E207" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D209" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="E209" s="14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C210" s="4"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>629</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D212" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>635</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>638</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="D217" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>656</v>
+      </c>
+      <c r="B220" t="s">
+        <v>657</v>
+      </c>
+      <c r="C220" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>662</v>
+      </c>
+      <c r="B222" t="s">
+        <v>663</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="E222" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>664</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E223" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>668</v>
+      </c>
+      <c r="B224" t="s">
+        <v>669</v>
+      </c>
+      <c r="C224" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="E224" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D225" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E225" s="14" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C226" s="4"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>676</v>
+      </c>
+      <c r="B227" t="s">
+        <v>677</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E227" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C228" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="E228" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C229" s="4"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C230" s="4"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D231" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>689</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C232" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="E232" s="14" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>692</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B234" t="s">
+        <v>695</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C235" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D235" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" customHeight="1">
+      <c r="A236" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D236" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="E236" s="18" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1">
+      <c r="A237" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="E237" s="18" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="18" customHeight="1">
+      <c r="A238" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C238" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>708</v>
+      </c>
+      <c r="B239" t="s">
+        <v>709</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E239" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A240" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B240" t="s">
+        <v>712</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A241" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C241" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="D241" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="E241" s="18" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>718</v>
+      </c>
+      <c r="B242" t="s">
+        <v>719</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="B243" t="s">
+        <v>721</v>
+      </c>
+      <c r="C243" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E243" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>723</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C244" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="D244" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E244" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A245" t="s">
+        <v>725</v>
+      </c>
+      <c r="B245" t="s">
+        <v>726</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="E245" s="20" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A246" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B246" t="s">
+        <v>730</v>
+      </c>
+      <c r="C246" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="E246" s="20" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B247" t="s">
+        <v>734</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D247" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="E247" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C248" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>740</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C251" s="4"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C252" s="4"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C253" s="4"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C254" s="4"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>754</v>
+      </c>
+      <c r="B255" t="s">
+        <v>753</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E255" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C256" s="4"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C257" s="4"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>760</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C258" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>762</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D259" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E259" s="23" t="s">
+        <v>769</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1045"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="23" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3008,7 +7752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:14" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3016,27 +7760,27 @@
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="39.75" customHeight="1">
+    <row r="4" spans="1:14" ht="39.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -3046,11 +7790,11 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:14" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -3060,12 +7804,12 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3079,7 +7823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3093,7 +7837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3107,7 +7851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -3121,7 +7865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -3135,7 +7879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:14" ht="12.75" customHeight="1">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -3148,8 +7892,11 @@
       <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
+      <c r="N11" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -3163,7 +7910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3177,7 +7924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:14" ht="12.75" customHeight="1">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -3191,7 +7938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:14" ht="12.75" customHeight="1">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -3205,7 +7952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
@@ -3215,7 +7962,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>69</v>
       </c>
@@ -3229,7 +7976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
@@ -3244,7 +7991,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3258,7 +8005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
@@ -3272,7 +8019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -3286,7 +8033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3300,7 +8047,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3314,7 +8061,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3328,7 +8075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -3342,7 +8089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -3356,7 +8103,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -3370,7 +8117,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -3384,7 +8131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
@@ -3398,7 +8145,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3412,7 +8159,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -3426,7 +8173,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>123</v>
       </c>
@@ -3440,7 +8187,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>126</v>
       </c>
@@ -3454,7 +8201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -3468,7 +8215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -3482,7 +8229,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>135</v>
       </c>
@@ -3496,7 +8243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>137</v>
       </c>
@@ -3510,7 +8257,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -3524,7 +8271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -3538,7 +8285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -3552,7 +8299,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>151</v>
       </c>
@@ -3562,7 +8309,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>153</v>
       </c>
@@ -3576,7 +8323,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -3590,7 +8337,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -3604,7 +8351,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>163</v>
       </c>
@@ -3614,7 +8361,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -3628,7 +8375,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -3642,7 +8389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>171</v>
       </c>
@@ -3656,7 +8403,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>174</v>
       </c>
@@ -3666,14 +8413,14 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -3687,7 +8434,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>180</v>
       </c>
@@ -3701,7 +8448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" t="s">
         <v>184</v>
       </c>
@@ -3715,7 +8462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>186</v>
       </c>
@@ -3729,7 +8476,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -3743,7 +8490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>192</v>
       </c>
@@ -3753,7 +8500,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" t="s">
         <v>194</v>
       </c>
@@ -3767,7 +8514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" t="s">
         <v>197</v>
       </c>
@@ -3781,7 +8528,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>200</v>
       </c>
@@ -3791,7 +8538,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -3805,7 +8552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>205</v>
       </c>
@@ -3819,7 +8566,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>209</v>
       </c>
@@ -3829,7 +8576,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" t="s">
         <v>211</v>
       </c>
@@ -3843,7 +8590,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3857,7 +8604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" t="s">
         <v>218</v>
       </c>
@@ -3871,7 +8618,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" t="s">
         <v>221</v>
       </c>
@@ -3885,7 +8632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>224</v>
       </c>
@@ -3899,7 +8646,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" t="s">
         <v>227</v>
       </c>
@@ -3913,7 +8660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" t="s">
         <v>231</v>
       </c>
@@ -3927,7 +8674,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>235</v>
       </c>
@@ -3941,7 +8688,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -3955,7 +8702,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>241</v>
       </c>
@@ -3963,7 +8710,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>242</v>
       </c>
@@ -3977,7 +8724,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" t="s">
         <v>246</v>
       </c>
@@ -3991,7 +8738,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" t="s">
         <v>249</v>
       </c>
@@ -4005,7 +8752,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" t="s">
         <v>251</v>
       </c>
@@ -4019,7 +8766,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" t="s">
         <v>255</v>
       </c>
@@ -4033,7 +8780,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" t="s">
         <v>259</v>
       </c>
@@ -4047,7 +8794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -4061,7 +8808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>265</v>
       </c>
@@ -4075,7 +8822,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>269</v>
       </c>
@@ -4089,7 +8836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -4103,7 +8850,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" t="s">
         <v>276</v>
       </c>
@@ -4117,7 +8864,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" t="s">
         <v>279</v>
       </c>
@@ -4131,7 +8878,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>282</v>
       </c>
@@ -4145,7 +8892,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>285</v>
       </c>
@@ -4159,7 +8906,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>288</v>
       </c>
@@ -4173,7 +8920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>291</v>
       </c>
@@ -4187,7 +8934,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" t="s">
         <v>294</v>
       </c>
@@ -4201,7 +8948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" t="s">
         <v>297</v>
       </c>
@@ -4215,7 +8962,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" t="s">
         <v>301</v>
       </c>
@@ -4229,7 +8976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" t="s">
         <v>303</v>
       </c>
@@ -4243,7 +8990,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" t="s">
         <v>307</v>
       </c>
@@ -4257,7 +9004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" t="s">
         <v>309</v>
       </c>
@@ -4271,7 +9018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>312</v>
       </c>
@@ -4281,7 +9028,7 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" t="s">
         <v>314</v>
       </c>
@@ -4295,7 +9042,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>316</v>
       </c>
@@ -4309,7 +9056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>319</v>
       </c>
@@ -4323,7 +9070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -4337,7 +9084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>324</v>
       </c>
@@ -4351,7 +9098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" t="s">
         <v>327</v>
       </c>
@@ -4365,7 +9112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>329</v>
       </c>
@@ -4379,7 +9126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>331</v>
       </c>
@@ -4393,7 +9140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" t="s">
         <v>334</v>
       </c>
@@ -4407,7 +9154,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" t="s">
         <v>336</v>
       </c>
@@ -4421,7 +9168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" t="s">
         <v>339</v>
       </c>
@@ -4435,7 +9182,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>342</v>
       </c>
@@ -4445,7 +9192,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>344</v>
       </c>
@@ -4459,7 +9206,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" t="s">
         <v>346</v>
       </c>
@@ -4473,7 +9220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" t="s">
         <v>349</v>
       </c>
@@ -4487,7 +9234,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>352</v>
       </c>
@@ -4501,7 +9248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" t="s">
         <v>355</v>
       </c>
@@ -4515,7 +9262,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" t="s">
         <v>359</v>
       </c>
@@ -4529,7 +9276,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" t="s">
         <v>363</v>
       </c>
@@ -4543,7 +9290,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" t="s">
         <v>365</v>
       </c>
@@ -4557,7 +9304,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" t="s">
         <v>368</v>
       </c>
@@ -4571,7 +9318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>370</v>
       </c>
@@ -4585,7 +9332,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" t="s">
         <v>373</v>
       </c>
@@ -4599,7 +9346,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>376</v>
       </c>
@@ -4613,7 +9360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" t="s">
         <v>379</v>
       </c>
@@ -4627,7 +9374,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>383</v>
       </c>
@@ -4641,7 +9388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" t="s">
         <v>386</v>
       </c>
@@ -4655,7 +9402,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>388</v>
       </c>
@@ -4669,7 +9416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>390</v>
       </c>
@@ -4683,7 +9430,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" t="s">
         <v>393</v>
       </c>
@@ -4697,7 +9444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" t="s">
         <v>395</v>
       </c>
@@ -4708,7 +9455,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>398</v>
       </c>
@@ -4722,7 +9469,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" t="s">
         <v>401</v>
       </c>
@@ -4736,7 +9483,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:5" ht="12.75" customHeight="1">
       <c r="A129" t="s">
         <v>404</v>
       </c>
@@ -4750,7 +9497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:5" ht="12.75" customHeight="1">
       <c r="A130" t="s">
         <v>407</v>
       </c>
@@ -4764,7 +9511,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:5" ht="12.75" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>410</v>
       </c>
@@ -4779,7 +9526,7 @@
       </c>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:5" ht="12.75" customHeight="1">
       <c r="A132" t="s">
         <v>412</v>
       </c>
@@ -4793,7 +9540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:5" ht="12.75" customHeight="1">
       <c r="A133" t="s">
         <v>414</v>
       </c>
@@ -4807,7 +9554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:5" ht="12.75" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>417</v>
       </c>
@@ -4821,7 +9568,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:5" ht="12.75" customHeight="1">
       <c r="A135" t="s">
         <v>420</v>
       </c>
@@ -4835,7 +9582,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:5" ht="12.75" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>423</v>
       </c>
@@ -4845,7 +9592,7 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:5" ht="12.75" customHeight="1">
       <c r="A137" t="s">
         <v>425</v>
       </c>
@@ -4859,7 +9606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:5" ht="12.75" customHeight="1">
       <c r="A138" t="s">
         <v>428</v>
       </c>
@@ -4873,7 +9620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:5" ht="12.75" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>430</v>
       </c>
@@ -4883,7 +9630,7 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:5" ht="12.75" customHeight="1">
       <c r="A140" t="s">
         <v>432</v>
       </c>
@@ -4897,7 +9644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:5" ht="12.75" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>434</v>
       </c>
@@ -4911,7 +9658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:5" ht="12.75" customHeight="1">
       <c r="A142" t="s">
         <v>437</v>
       </c>
@@ -4925,7 +9672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:5" ht="12.75" customHeight="1">
       <c r="A143" t="s">
         <v>440</v>
       </c>
@@ -4939,7 +9686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:5" ht="12.75" customHeight="1">
       <c r="A144" t="s">
         <v>443</v>
       </c>
@@ -4953,7 +9700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:5" ht="12.75" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>445</v>
       </c>
@@ -4970,7 +9717,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:5" ht="12.75" customHeight="1">
       <c r="A146" t="s">
         <v>449</v>
       </c>
@@ -4985,7 +9732,7 @@
       </c>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:5" ht="12.75" customHeight="1">
       <c r="A147" t="s">
         <v>452</v>
       </c>
@@ -4999,7 +9746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:5" ht="12.75" customHeight="1">
       <c r="A148" t="s">
         <v>455</v>
       </c>
@@ -5013,7 +9760,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:5" ht="12.75" customHeight="1">
       <c r="A149" t="s">
         <v>457</v>
       </c>
@@ -5027,7 +9774,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:5" ht="12.75" customHeight="1">
       <c r="A150" t="s">
         <v>461</v>
       </c>
@@ -5041,7 +9788,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:5" ht="12.75" customHeight="1">
       <c r="A151" t="s">
         <v>463</v>
       </c>
@@ -5055,7 +9802,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:5" ht="12.75" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>466</v>
       </c>
@@ -5069,7 +9816,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:5" ht="12.75" customHeight="1">
       <c r="A153" t="s">
         <v>468</v>
       </c>
@@ -5083,7 +9830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:5" ht="12.75" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>470</v>
       </c>
@@ -5097,7 +9844,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:5" ht="12.75" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>472</v>
       </c>
@@ -5111,7 +9858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:5" ht="12.75" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>475</v>
       </c>
@@ -5125,7 +9872,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:5" ht="12.75" customHeight="1">
       <c r="A157" t="s">
         <v>478</v>
       </c>
@@ -5139,7 +9886,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:5" ht="12.75" customHeight="1">
       <c r="A158" t="s">
         <v>480</v>
       </c>
@@ -5153,7 +9900,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:5" ht="12.75" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>484</v>
       </c>
@@ -5167,7 +9914,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:5" ht="12.75" customHeight="1">
       <c r="A160" t="s">
         <v>487</v>
       </c>
@@ -5181,7 +9928,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>490</v>
       </c>
@@ -5195,7 +9942,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>493</v>
       </c>
@@ -5209,7 +9956,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" t="s">
         <v>496</v>
       </c>
@@ -5223,7 +9970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>498</v>
       </c>
@@ -5237,7 +9984,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" t="s">
         <v>500</v>
       </c>
@@ -5251,7 +9998,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" t="s">
         <v>504</v>
       </c>
@@ -5265,7 +10012,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>508</v>
       </c>
@@ -5275,7 +10022,7 @@
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -5289,7 +10036,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -5303,7 +10050,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" t="s">
         <v>516</v>
       </c>
@@ -5317,7 +10064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>518</v>
       </c>
@@ -5331,7 +10078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>521</v>
       </c>
@@ -5342,7 +10089,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>524</v>
       </c>
@@ -5351,7 +10098,7 @@
       </c>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" t="s">
         <v>525</v>
       </c>
@@ -5365,7 +10112,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>528</v>
       </c>
@@ -5379,7 +10126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="6" t="s">
         <v>531</v>
       </c>
@@ -5393,7 +10140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>534</v>
       </c>
@@ -5407,7 +10154,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" t="s">
         <v>537</v>
       </c>
@@ -5421,7 +10168,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" t="s">
         <v>541</v>
       </c>
@@ -5435,7 +10182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>544</v>
       </c>
@@ -5445,7 +10192,7 @@
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" t="s">
         <v>546</v>
       </c>
@@ -5459,7 +10206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" t="s">
         <v>549</v>
       </c>
@@ -5473,7 +10220,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="3" t="s">
         <v>552</v>
       </c>
@@ -5483,7 +10230,7 @@
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>554</v>
       </c>
@@ -5497,7 +10244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>555</v>
       </c>
@@ -5511,7 +10258,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" t="s">
         <v>558</v>
       </c>
@@ -5525,7 +10272,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" t="s">
         <v>561</v>
       </c>
@@ -5539,7 +10286,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" t="s">
         <v>565</v>
       </c>
@@ -5553,7 +10300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="3" t="s">
         <v>567</v>
       </c>
@@ -5567,7 +10314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>569</v>
       </c>
@@ -5581,7 +10328,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="3" t="s">
         <v>571</v>
       </c>
@@ -5591,7 +10338,7 @@
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="3" t="s">
         <v>573</v>
       </c>
@@ -5601,7 +10348,7 @@
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>575</v>
       </c>
@@ -5615,7 +10362,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" t="s">
         <v>579</v>
       </c>
@@ -5629,7 +10376,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" t="s">
         <v>582</v>
       </c>
@@ -5643,7 +10390,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" t="s">
         <v>584</v>
       </c>
@@ -5657,7 +10404,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>587</v>
       </c>
@@ -5671,7 +10418,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>591</v>
       </c>
@@ -5685,7 +10432,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>595</v>
       </c>
@@ -5695,7 +10442,7 @@
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="3" t="s">
         <v>597</v>
       </c>
@@ -5709,7 +10456,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" t="s">
         <v>601</v>
       </c>
@@ -5723,7 +10470,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="3" t="s">
         <v>605</v>
       </c>
@@ -5733,7 +10480,7 @@
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" t="s">
         <v>607</v>
       </c>
@@ -5747,7 +10494,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="3" t="s">
         <v>609</v>
       </c>
@@ -5761,7 +10508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" t="s">
         <v>611</v>
       </c>
@@ -5775,7 +10522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="3" t="s">
         <v>613</v>
       </c>
@@ -5789,7 +10536,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>616</v>
       </c>
@@ -5803,7 +10550,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" t="s">
         <v>619</v>
       </c>
@@ -5817,7 +10564,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>622</v>
       </c>
@@ -5831,7 +10578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="3" t="s">
         <v>625</v>
       </c>
@@ -5845,7 +10592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="3" t="s">
         <v>628</v>
       </c>
@@ -5855,7 +10602,7 @@
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" t="s">
         <v>629</v>
       </c>
@@ -5869,7 +10616,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="3" t="s">
         <v>632</v>
       </c>
@@ -5883,7 +10630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" t="s">
         <v>635</v>
       </c>
@@ -5897,7 +10644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" t="s">
         <v>638</v>
       </c>
@@ -5911,7 +10658,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>641</v>
       </c>
@@ -5925,7 +10672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="3" t="s">
         <v>643</v>
       </c>
@@ -5939,7 +10686,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>646</v>
       </c>
@@ -5953,7 +10700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="3" t="s">
         <v>649</v>
       </c>
@@ -5967,7 +10714,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="3" t="s">
         <v>653</v>
       </c>
@@ -5981,7 +10728,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" t="s">
         <v>656</v>
       </c>
@@ -5995,7 +10742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="3" t="s">
         <v>659</v>
       </c>
@@ -6009,7 +10756,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" t="s">
         <v>662</v>
       </c>
@@ -6023,7 +10770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" t="s">
         <v>664</v>
       </c>
@@ -6037,7 +10784,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" t="s">
         <v>668</v>
       </c>
@@ -6051,7 +10798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>671</v>
       </c>
@@ -6065,14 +10812,14 @@
         <v>674</v>
       </c>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="3" t="s">
         <v>675</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" t="s">
         <v>676</v>
       </c>
@@ -6086,7 +10833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="3" t="s">
         <v>679</v>
       </c>
@@ -6100,7 +10847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="3" t="s">
         <v>682</v>
       </c>
@@ -6110,7 +10857,7 @@
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="3" t="s">
         <v>684</v>
       </c>
@@ -6120,7 +10867,7 @@
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="3" t="s">
         <v>686</v>
       </c>
@@ -6134,7 +10881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" t="s">
         <v>689</v>
       </c>
@@ -6148,7 +10895,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" t="s">
         <v>692</v>
       </c>
@@ -6162,7 +10909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="3" t="s">
         <v>694</v>
       </c>
@@ -6176,7 +10923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="3" t="s">
         <v>697</v>
       </c>
@@ -6190,7 +10937,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="3" t="s">
         <v>699</v>
       </c>
@@ -6204,7 +10951,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>702</v>
       </c>
@@ -6218,7 +10965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>705</v>
       </c>
@@ -6232,7 +10979,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" t="s">
         <v>708</v>
       </c>
@@ -6246,7 +10993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="3" t="s">
         <v>711</v>
       </c>
@@ -6260,7 +11007,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="3" t="s">
         <v>714</v>
       </c>
@@ -6274,7 +11021,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" t="s">
         <v>718</v>
       </c>
@@ -6288,7 +11035,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="3" t="s">
         <v>720</v>
       </c>
@@ -6302,7 +11049,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" t="s">
         <v>723</v>
       </c>
@@ -6316,7 +11063,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" t="s">
         <v>725</v>
       </c>
@@ -6330,7 +11077,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="3" t="s">
         <v>729</v>
       </c>
@@ -6344,7 +11091,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="3" t="s">
         <v>733</v>
       </c>
@@ -6358,7 +11105,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="3" t="s">
         <v>737</v>
       </c>
@@ -6372,7 +11119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" t="s">
         <v>740</v>
       </c>
@@ -6386,7 +11133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="3" t="s">
         <v>743</v>
       </c>
@@ -6398,7 +11145,7 @@
       </c>
       <c r="D251" s="3"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="3" t="s">
         <v>746</v>
       </c>
@@ -6408,7 +11155,7 @@
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="3" t="s">
         <v>748</v>
       </c>
@@ -6418,7 +11165,7 @@
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="3" t="s">
         <v>750</v>
       </c>
@@ -6428,7 +11175,7 @@
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="3" t="s">
         <v>752</v>
       </c>
@@ -6438,7 +11185,7 @@
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" t="s">
         <v>754</v>
       </c>
@@ -6452,7 +11199,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="3" t="s">
         <v>756</v>
       </c>
@@ -6461,7 +11208,7 @@
       </c>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="3" t="s">
         <v>758</v>
       </c>
@@ -6470,7 +11217,7 @@
       </c>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" t="s">
         <v>760</v>
       </c>
@@ -6484,7 +11231,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" t="s">
         <v>762</v>
       </c>
@@ -6498,20 +11245,20 @@
         <v>403</v>
       </c>
     </row>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="262" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="263" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="264" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="3"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="266" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="267" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="268" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="269" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="270" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="271" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="272" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="273" ht="12.75" customHeight="1"/>
     <row r="274" ht="12.75" customHeight="1"/>
     <row r="275" ht="12.75" customHeight="1"/>
@@ -7286,29 +12033,25 @@
     <row r="1044" ht="12.75" customHeight="1"/>
     <row r="1045" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.86"/>
-    <col customWidth="1" min="2" max="4" width="50.86"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="4" width="50.85546875" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7322,7 +12065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7336,20 +12079,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -8335,9 +13078,7 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modding resources/Internal Factions Completed.xlsx
+++ b/Modding resources/Internal Factions Completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruv\Documents\Paradox Interactive\Hearts of Iron IV\mod\Modern_Day_4_HOI\Modding resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7023F0-861B-4238-BDF6-6838B8F3944A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A36CC4-CBEA-4000-973E-0B2E66E65D74}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3539,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061963EA-51AF-4269-AB1D-04C184E083DD}">
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12042,7 +12042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
